--- a/整理结果/1106-llama模板+微调参数对比.xlsx
+++ b/整理结果/1106-llama模板+微调参数对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MaTun\Desktop\手写参数结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951D1F5-4AC5-4F9C-8E81-D4944BDA7E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E0E22-8951-4672-8D37-7F10C2EB40C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="8520" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="50">
   <si>
     <t>easy</t>
   </si>
@@ -94,6 +94,87 @@
   </si>
   <si>
     <t>------------------------------- PARTIAL MATCHING F1 -----------------------------------</t>
+  </si>
+  <si>
+    <t>### model</t>
+  </si>
+  <si>
+    <t>model_name_or_path: /home/models/Llama-3.2-3B</t>
+  </si>
+  <si>
+    <t>### 手动配置区</t>
+  </si>
+  <si>
+    <t>template: llama3 # 重要！模板</t>
+  </si>
+  <si>
+    <t>adapter_name_or_path: /home/wma/Mercury-SQL/Models/llama3B/tp_llama3/C3_train_1_hop/checkpoint-980</t>
+  </si>
+  <si>
+    <t>output_dir: ../Results/prediction/tp_llama/C3</t>
+  </si>
+  <si>
+    <t>eval_dataset: C3_eval_1_hop</t>
+  </si>
+  <si>
+    <t># 统一参数区</t>
+  </si>
+  <si>
+    <t>cutoff_len: 1024</t>
+  </si>
+  <si>
+    <t>dataset_dir: data</t>
+  </si>
+  <si>
+    <t>do_predict: true</t>
+  </si>
+  <si>
+    <t>finetuning_type: lora</t>
+  </si>
+  <si>
+    <t>flash_attn: auto</t>
+  </si>
+  <si>
+    <t>max_new_tokens: 100</t>
+  </si>
+  <si>
+    <t>max_samples: 100000</t>
+  </si>
+  <si>
+    <t>per_device_eval_batch_size: 2</t>
+  </si>
+  <si>
+    <t>predict_with_generate: true</t>
+  </si>
+  <si>
+    <t>preprocessing_num_workers: 16</t>
+  </si>
+  <si>
+    <t>quantization_method: bitsandbytes</t>
+  </si>
+  <si>
+    <t>stage: sft</t>
+  </si>
+  <si>
+    <t>top_p: 0.7</t>
+  </si>
+  <si>
+    <t>temperature: 0.95</t>
+  </si>
+  <si>
+    <t>adapter_name_or_path: /home/wma/Mercury-SQL/Models/llama3B/tp_llama3/C3_orig_train_1_hop_lr_5/checkpoint-900</t>
+  </si>
+  <si>
+    <t>output_dir: ../Results/prediction/tp_llama/C3o_lr5</t>
+  </si>
+  <si>
+    <t>eval_dataset: C3_orig_eval_1_hop</t>
+  </si>
+  <si>
+    <t>adapter_name_or_path: /home/wma/Mercury-SQL/Models/llama3B/tp_llama3/C3_orig_train_1_hop_lr_7/checkpoint-980</t>
+  </si>
+  <si>
+    <t>output_dir: ../Results/prediction/tp_llama/C3o_lr7</t>
   </si>
 </sst>
 </file>
@@ -2743,16 +2824,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD68E0B-2519-4FF0-BB2C-82741B6F4E72}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2769,8 +2852,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2789,8 +2875,11 @@
       <c r="F2" s="3">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2889,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2819,8 +2908,11 @@
       <c r="F4" s="3">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2829,8 +2921,11 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2849,8 +2944,11 @@
       <c r="F6" s="3">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2859,8 +2957,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2879,8 +2980,11 @@
       <c r="F8" s="3">
         <v>0.91600000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +3004,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -2919,8 +3023,11 @@
       <c r="F10" s="3">
         <v>0.71699999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -2939,8 +3046,11 @@
       <c r="F11" s="3">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2959,8 +3069,11 @@
       <c r="F12" s="3">
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -2979,8 +3092,11 @@
       <c r="F13" s="3">
         <v>0.75600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2999,8 +3115,11 @@
       <c r="F14" s="3">
         <v>0.86899999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -3019,8 +3138,11 @@
       <c r="F15" s="3">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3039,8 +3161,11 @@
       <c r="F16" s="3">
         <v>0.59599999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3059,8 +3184,11 @@
       <c r="F17" s="3">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3069,8 +3197,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3089,8 +3220,11 @@
       <c r="F19" s="3">
         <v>0.753</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -3109,8 +3243,11 @@
       <c r="F20" s="3">
         <v>0.76400000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -3129,8 +3266,11 @@
       <c r="F21" s="3">
         <v>0.56299999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -3149,8 +3289,11 @@
       <c r="F22" s="3">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -3169,8 +3312,11 @@
       <c r="F23" s="3">
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -3189,8 +3335,11 @@
       <c r="F24" s="3">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -3210,7 +3359,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -3230,7 +3379,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3399,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -3270,7 +3419,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
@@ -3280,7 +3429,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3449,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -3320,7 +3469,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -3496,10 +3645,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49031A32-3FF7-4D11-B3E2-826B46AEC981}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="H1" sqref="H1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3507,7 +3656,7 @@
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3524,8 +3673,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3544,8 +3696,11 @@
       <c r="F2" s="3">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +3710,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3574,8 +3729,11 @@
       <c r="F4" s="3">
         <v>0.61399999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -3584,8 +3742,11 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="F6" s="3">
         <v>0.57499999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3614,8 +3778,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3634,8 +3801,11 @@
       <c r="F8" s="3">
         <v>0.90900000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3655,7 +3825,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3674,8 +3844,11 @@
       <c r="F10" s="3">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3694,8 +3867,11 @@
       <c r="F11" s="3">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -3714,8 +3890,11 @@
       <c r="F12" s="3">
         <v>0.79900000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -3734,8 +3913,11 @@
       <c r="F13" s="3">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -3754,8 +3936,11 @@
       <c r="F14" s="3">
         <v>0.88900000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -3774,8 +3959,11 @@
       <c r="F15" s="3">
         <v>0.96699999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3794,8 +3982,11 @@
       <c r="F16" s="3">
         <v>0.434</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3814,8 +4005,11 @@
       <c r="F17" s="3">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3824,8 +4018,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3844,8 +4041,11 @@
       <c r="F19" s="3">
         <v>0.745</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -3864,8 +4064,11 @@
       <c r="F20" s="3">
         <v>0.752</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -3884,8 +4087,11 @@
       <c r="F21" s="3">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -3904,8 +4110,11 @@
       <c r="F22" s="3">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -3924,8 +4133,11 @@
       <c r="F23" s="3">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -3944,8 +4156,11 @@
       <c r="F24" s="3">
         <v>0.60099999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -3965,7 +4180,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -3985,7 +4200,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -4005,7 +4220,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -4025,7 +4240,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
@@ -4035,7 +4250,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -4055,7 +4270,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +4290,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -4250,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF519D-B911-4941-882E-3312590F851A}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4476,7 @@
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4278,8 +4493,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4298,8 +4516,11 @@
       <c r="F2" s="3">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4309,7 +4530,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4328,8 +4549,11 @@
       <c r="F4" s="3">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -4338,8 +4562,11 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4358,8 +4585,11 @@
       <c r="F6" s="3">
         <v>0.58299999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4368,8 +4598,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4388,8 +4621,11 @@
       <c r="F8" s="3">
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4645,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -4428,8 +4664,11 @@
       <c r="F10" s="3">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -4448,8 +4687,11 @@
       <c r="F11" s="3">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -4468,8 +4710,11 @@
       <c r="F12" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -4488,8 +4733,11 @@
       <c r="F13" s="3">
         <v>0.746</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -4508,8 +4756,11 @@
       <c r="F14" s="3">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -4528,8 +4779,11 @@
       <c r="F15" s="3">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4548,8 +4802,11 @@
       <c r="F16" s="3">
         <v>0.40400000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -4568,8 +4825,11 @@
       <c r="F17" s="3">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -4578,8 +4838,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -4598,8 +4861,11 @@
       <c r="F19" s="3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -4618,8 +4884,11 @@
       <c r="F20" s="3">
         <v>0.75900000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -4638,8 +4907,11 @@
       <c r="F21" s="3">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -4658,8 +4930,11 @@
       <c r="F22" s="3">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -4678,8 +4953,11 @@
       <c r="F23" s="3">
         <v>0.65300000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -4698,8 +4976,11 @@
       <c r="F24" s="3">
         <v>0.61599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -4719,7 +5000,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -4739,7 +5020,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -4759,7 +5040,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -4779,7 +5060,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
@@ -4789,7 +5070,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -4809,7 +5090,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -4829,7 +5110,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
